--- a/src/test/java/com/test/api/datatest/data.xlsx
+++ b/src/test/java/com/test/api/datatest/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UserLogin" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -36,16 +36,13 @@
     <t>6282278843303</t>
   </si>
   <si>
-    <t>ahmadilham000@gmail.com</t>
-  </si>
-  <si>
-    <t>01101994</t>
-  </si>
-  <si>
     <t>Keyword</t>
   </si>
   <si>
     <t>Idol</t>
+  </si>
+  <si>
+    <t>paijo@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -547,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,10 +563,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -592,13 +589,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -624,12 +621,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
